--- a/ssp_modeling/scenario_mapping/ssp_uganda_transformation_cw_2025_03_11.xlsx
+++ b/ssp_modeling/scenario_mapping/ssp_uganda_transformation_cw_2025_03_11.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tecmx-my.sharepoint.com/personal/juan_robledo_tec_mx/Documents/SISEPUEDE/SSP_Uganda/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\fabian_fuentes\repos\ssp_uganda\ssp_modeling\scenario_mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{D3D2560C-C649-453B-A952-A0CE60F9C451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08A1639D-DB9A-4147-A98B-E9B9B5ABAEE5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B7ACD7-95DE-460F-A2D1-08A3AE9EBE30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$P$71</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">yaml!$E$1:$F$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">yaml!$A$1:$F$62</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1831,6 +1831,23 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1855,23 +1872,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2203,29 +2203,29 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="13.21875" style="19" customWidth="1"/>
-    <col min="3" max="3" width="38.44140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="62.6640625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="33.21875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="48.6640625" style="16" customWidth="1"/>
-    <col min="10" max="10" width="40.44140625" style="16" customWidth="1"/>
+    <col min="1" max="2" width="13.1796875" style="19" customWidth="1"/>
+    <col min="3" max="3" width="38.453125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.453125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="62.6328125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="33.1796875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="19.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.453125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="48.6328125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="40.453125" style="16" customWidth="1"/>
     <col min="11" max="12" width="35" style="16" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="13.77734375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="18.44140625" style="37" customWidth="1"/>
-    <col min="16" max="16" width="13.44140625" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="8.77734375" style="15"/>
+    <col min="13" max="13" width="13.453125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="13.81640625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="18.453125" style="29" customWidth="1"/>
+    <col min="16" max="16" width="13.453125" style="29" customWidth="1"/>
+    <col min="17" max="16384" width="8.81640625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="5" customFormat="1" ht="64.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="5" customFormat="1" ht="65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2268,14 +2268,14 @@
       <c r="N1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="28" t="s">
         <v>501</v>
       </c>
-      <c r="P1" s="38" t="s">
+      <c r="P1" s="30" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="12" customFormat="1" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="12" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2397,7 +2397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -2440,23 +2440,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="37" t="s">
         <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
@@ -2490,17 +2490,17 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="31"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="14" t="s">
         <v>9</v>
       </c>
@@ -2532,17 +2532,17 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="31"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="14" t="s">
         <v>9</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
         <v>80</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>80</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>80</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>80</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>80</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>80</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>80</v>
       </c>
@@ -2840,13 +2840,13 @@
       <c r="C15" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="40" t="s">
         <v>181</v>
       </c>
       <c r="G15" s="6" t="s">
@@ -2880,7 +2880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>80</v>
       </c>
@@ -2890,9 +2890,9 @@
       <c r="C16" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
       <c r="G16" s="7" t="s">
         <v>9</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>80</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>80</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>127</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>127</v>
       </c>
@@ -3072,16 +3072,16 @@
       <c r="C20" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="40" t="s">
         <v>9</v>
       </c>
       <c r="H20" s="6" t="s">
@@ -3112,7 +3112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>127</v>
       </c>
@@ -3122,10 +3122,10 @@
       <c r="C21" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
       <c r="H21" s="6" t="s">
         <v>346</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>127</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>127</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>127</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>127</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>5</v>
       </c>
@@ -3328,16 +3328,16 @@
       <c r="C26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="E26" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="40" t="s">
         <v>9</v>
       </c>
       <c r="H26" s="6" t="s">
@@ -3368,7 +3368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>5</v>
       </c>
@@ -3378,10 +3378,10 @@
       <c r="C27" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
       <c r="H27" s="6" t="s">
         <v>381</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>5</v>
       </c>
@@ -3420,10 +3420,10 @@
       <c r="C28" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
       <c r="H28" s="6" t="s">
         <v>390</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>5</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>5</v>
       </c>
@@ -3510,13 +3510,13 @@
       <c r="C30" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="40" t="s">
         <v>194</v>
       </c>
       <c r="G30" s="7" t="s">
@@ -3550,7 +3550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>5</v>
       </c>
@@ -3560,9 +3560,9 @@
       <c r="C31" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="34"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="41"/>
       <c r="G31" s="7" t="s">
         <v>9</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
@@ -3604,9 +3604,9 @@
       <c r="C32" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="31"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="38"/>
       <c r="G32" s="7" t="s">
         <v>9</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>5</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>5</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>5</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>5</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>5</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>5</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>5</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>5</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>151</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>151</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>80</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>80</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>80</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>5</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>5</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>80</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>80</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>80</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>80</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>80</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>80</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>80</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>80</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>80</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
         <v>80</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>80</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>127</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>127</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>57</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>57</v>
       </c>
@@ -4948,7 +4948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>57</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>57</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>57</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>57</v>
       </c>
@@ -5100,13 +5100,13 @@
       <c r="C66" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D66" s="28" t="s">
+      <c r="D66" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="E66" s="28" t="s">
+      <c r="E66" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="F66" s="28" t="s">
+      <c r="F66" s="35" t="s">
         <v>241</v>
       </c>
       <c r="G66" s="7"/>
@@ -5138,7 +5138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
         <v>57</v>
       </c>
@@ -5148,9 +5148,9 @@
       <c r="C67" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="29"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
       <c r="G67" s="7" t="s">
         <v>9</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
         <v>57</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
         <v>57</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
         <v>57</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="85.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" ht="85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>57</v>
       </c>
@@ -5449,6 +5449,54 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M1:N1048576">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:N2">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M34:O37 M2:P8 M10:P25 M29:P33 M38:P71">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9:P9">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M26:P26">
     <cfRule type="colorScale" priority="67">
       <colorScale>
@@ -5505,44 +5553,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:N2">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M1:N1048576">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
     <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5565,20 +5577,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M34:O37 M2:P8 M10:P25 M29:P33 M38:P71">
-    <cfRule type="colorScale" priority="85">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M9:P9">
-    <cfRule type="colorScale" priority="90">
+  <conditionalFormatting sqref="P1:P1048576">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5646,1385 +5646,1384 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB6D802-2A41-42EC-BC6C-43AD8F9BB1E2}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="19.21875" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.1796875" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="E1" s="40" t="str">
+      <c r="E1" s="32" t="str">
         <f>main!O1</f>
         <v>strategy_NDC</v>
       </c>
-      <c r="F1" s="40" t="str">
+      <c r="F1" s="32" t="str">
         <f>main!P1</f>
         <v>strategy_NZ</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="34">
         <f>+IF(VLOOKUP(B2,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B2,main!$C$2:$P$71,13,FALSE))</f>
         <v>1.5</v>
       </c>
-      <c r="F2" s="42">
+      <c r="F2" s="34">
         <f>+IF(VLOOKUP(B2,main!C2:P71,14,FALSE)=0,"",VLOOKUP(B2,main!C2:P71,14,FALSE))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="E3" s="42" t="str">
+      <c r="E3" s="34" t="str">
         <f>+IF(VLOOKUP(B3,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B3,main!$C$2:$P$71,13,FALSE))</f>
         <v/>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="34">
         <f>+IF(VLOOKUP(B3,main!C3:P72,14,FALSE)=0,"",VLOOKUP(B3,main!C3:P72,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="E4" s="42" t="str">
+      <c r="E4" s="34" t="str">
         <f>+IF(VLOOKUP(B4,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B4,main!$C$2:$P$71,13,FALSE))</f>
         <v/>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="34">
         <f>+IF(VLOOKUP(B4,main!C4:P73,14,FALSE)=0,"",VLOOKUP(B4,main!C4:P73,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="33" t="s">
         <v>275</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="34">
         <f>+IF(VLOOKUP(B5,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B5,main!$C$2:$P$71,13,FALSE))</f>
         <v>1.5</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="34">
         <f>+IF(VLOOKUP(B5,main!C5:P74,14,FALSE)=0,"",VLOOKUP(B5,main!C5:P74,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="34">
         <f>+IF(VLOOKUP(B6,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B6,main!$C$2:$P$71,13,FALSE))</f>
         <v>1.5</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="34">
         <f>+IF(VLOOKUP(B6,main!C6:P75,14,FALSE)=0,"",VLOOKUP(B6,main!C6:P75,14,FALSE))</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="E7" s="42" t="str">
+      <c r="E7" s="34" t="str">
         <f>+IF(VLOOKUP(B7,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B7,main!$C$2:$P$71,13,FALSE))</f>
         <v/>
       </c>
-      <c r="F7" s="42">
+      <c r="F7" s="34">
         <f>+IF(VLOOKUP(B7,main!C7:P76,14,FALSE)=0,"",VLOOKUP(B7,main!C7:P76,14,FALSE))</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="34">
         <f>+IF(VLOOKUP(B8,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B8,main!$C$2:$P$71,13,FALSE))</f>
         <v>2.5</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="34">
         <f>+IF(VLOOKUP(B8,main!C8:P77,14,FALSE)=0,"",VLOOKUP(B8,main!C8:P77,14,FALSE))</f>
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="34">
         <f>+IF(VLOOKUP(B9,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B9,main!$C$2:$P$71,13,FALSE))</f>
         <v>0.4</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="34">
         <f>+IF(VLOOKUP(B9,main!C9:P78,14,FALSE)=0,"",VLOOKUP(B9,main!C9:P78,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="34">
         <f>+IF(VLOOKUP(B10,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B10,main!$C$2:$P$71,13,FALSE))</f>
         <v>0.6</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="34">
         <f>+IF(VLOOKUP(B10,main!C10:P79,14,FALSE)=0,"",VLOOKUP(B10,main!C10:P79,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="E11" s="42" t="str">
+      <c r="E11" s="34" t="str">
         <f>+IF(VLOOKUP(B11,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B11,main!$C$2:$P$71,13,FALSE))</f>
         <v/>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="34">
         <f>+IF(VLOOKUP(B11,main!C11:P80,14,FALSE)=0,"",VLOOKUP(B11,main!C11:P80,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="E12" s="42" t="str">
+      <c r="E12" s="34" t="str">
         <f>+IF(VLOOKUP(B12,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B12,main!$C$2:$P$71,13,FALSE))</f>
         <v/>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="34">
         <f>+IF(VLOOKUP(B12,main!C12:P81,14,FALSE)=0,"",VLOOKUP(B12,main!C12:P81,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="34">
         <f>+IF(VLOOKUP(B13,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B13,main!$C$2:$P$71,13,FALSE))</f>
         <v>1.5</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="34">
         <f>+IF(VLOOKUP(B13,main!C13:P82,14,FALSE)=0,"",VLOOKUP(B13,main!C13:P82,14,FALSE))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="41" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="34">
         <f>+IF(VLOOKUP(B14,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B14,main!$C$2:$P$71,13,FALSE))</f>
         <v>0.6</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="34">
         <f>+IF(VLOOKUP(B14,main!C14:P83,14,FALSE)=0,"",VLOOKUP(B14,main!C14:P83,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="E15" s="42" t="str">
+      <c r="E15" s="34" t="str">
         <f>+IF(VLOOKUP(B15,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B15,main!$C$2:$P$71,13,FALSE))</f>
         <v/>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="34">
         <f>+IF(VLOOKUP(B15,main!C15:P84,14,FALSE)=0,"",VLOOKUP(B15,main!C15:P84,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="34">
         <f>+IF(VLOOKUP(B16,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B16,main!$C$2:$P$71,13,FALSE))</f>
         <v>0.8</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="34">
         <f>+IF(VLOOKUP(B16,main!C16:P85,14,FALSE)=0,"",VLOOKUP(B16,main!C16:P85,14,FALSE))</f>
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="41" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="34">
         <f>+IF(VLOOKUP(B17,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B17,main!$C$2:$P$71,13,FALSE))</f>
         <v>1</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="34">
         <f>+IF(VLOOKUP(B17,main!C17:P86,14,FALSE)=0,"",VLOOKUP(B17,main!C17:P86,14,FALSE))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="41" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="34">
         <f>+IF(VLOOKUP(B18,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B18,main!$C$2:$P$71,13,FALSE))</f>
         <v>2</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="34">
         <f>+IF(VLOOKUP(B18,main!C18:P87,14,FALSE)=0,"",VLOOKUP(B18,main!C18:P87,14,FALSE))</f>
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="E19" s="42" t="str">
+      <c r="E19" s="34" t="str">
         <f>+IF(VLOOKUP(B19,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B19,main!$C$2:$P$71,13,FALSE))</f>
         <v/>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="34">
         <f>+IF(VLOOKUP(B19,main!C19:P88,14,FALSE)=0,"",VLOOKUP(B19,main!C19:P88,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="41" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="E20" s="42" t="str">
+      <c r="E20" s="34" t="str">
         <f>+IF(VLOOKUP(B20,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B20,main!$C$2:$P$71,13,FALSE))</f>
         <v/>
       </c>
-      <c r="F20" s="42">
+      <c r="F20" s="34">
         <f>+IF(VLOOKUP(B20,main!C20:P89,14,FALSE)=0,"",VLOOKUP(B20,main!C20:P89,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="41" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="E21" s="42" t="str">
+      <c r="E21" s="34" t="str">
         <f>+IF(VLOOKUP(B21,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B21,main!$C$2:$P$71,13,FALSE))</f>
         <v/>
       </c>
-      <c r="F21" s="42">
+      <c r="F21" s="34">
         <f>+IF(VLOOKUP(B21,main!C21:P90,14,FALSE)=0,"",VLOOKUP(B21,main!C21:P90,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="41" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="34">
         <f>+IF(VLOOKUP(B22,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B22,main!$C$2:$P$71,13,FALSE))</f>
         <v>0.5</v>
       </c>
-      <c r="F22" s="42">
+      <c r="F22" s="34">
         <f>+IF(VLOOKUP(B22,main!C22:P91,14,FALSE)=0,"",VLOOKUP(B22,main!C22:P91,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="41" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="E23" s="42">
+      <c r="E23" s="34">
         <f>+IF(VLOOKUP(B23,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B23,main!$C$2:$P$71,13,FALSE))</f>
         <v>0.5</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="34">
         <f>+IF(VLOOKUP(B23,main!C23:P92,14,FALSE)=0,"",VLOOKUP(B23,main!C23:P92,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="41" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="E24" s="42">
+      <c r="E24" s="34">
         <f>+IF(VLOOKUP(B24,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B24,main!$C$2:$P$71,13,FALSE))</f>
         <v>2</v>
       </c>
-      <c r="F24" s="42">
+      <c r="F24" s="34">
         <f>+IF(VLOOKUP(B24,main!C24:P93,14,FALSE)=0,"",VLOOKUP(B24,main!C24:P93,14,FALSE))</f>
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="41" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="41" t="s">
+      <c r="C25" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="E25" s="42">
+      <c r="E25" s="34">
         <f>+IF(VLOOKUP(B25,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B25,main!$C$2:$P$71,13,FALSE))</f>
         <v>2</v>
       </c>
-      <c r="F25" s="42">
+      <c r="F25" s="34">
         <f>+IF(VLOOKUP(B25,main!C25:P94,14,FALSE)=0,"",VLOOKUP(B25,main!C25:P94,14,FALSE))</f>
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="41" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="41" t="s">
+      <c r="C26" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="E26" s="42" t="str">
+      <c r="E26" s="34" t="str">
         <f>+IF(VLOOKUP(B26,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B26,main!$C$2:$P$71,13,FALSE))</f>
         <v/>
       </c>
-      <c r="F26" s="42">
+      <c r="F26" s="34">
         <f>+IF(VLOOKUP(B26,main!C26:P95,14,FALSE)=0,"",VLOOKUP(B26,main!C26:P95,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="41" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="E27" s="42" t="str">
+      <c r="E27" s="34" t="str">
         <f>+IF(VLOOKUP(B27,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B27,main!$C$2:$P$71,13,FALSE))</f>
         <v/>
       </c>
-      <c r="F27" s="42">
+      <c r="F27" s="34">
         <f>+IF(VLOOKUP(B27,main!C27:P96,14,FALSE)=0,"",VLOOKUP(B27,main!C27:P96,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="41" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="41" t="s">
+      <c r="D28" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="E28" s="42" t="str">
+      <c r="E28" s="34" t="str">
         <f>+IF(VLOOKUP(B28,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B28,main!$C$2:$P$71,13,FALSE))</f>
         <v/>
       </c>
-      <c r="F28" s="42">
+      <c r="F28" s="34">
         <f>+IF(VLOOKUP(B28,main!C28:P97,14,FALSE)=0,"",VLOOKUP(B28,main!C28:P97,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="41" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="41" t="s">
+      <c r="C29" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="E29" s="42" t="str">
+      <c r="E29" s="34" t="str">
         <f>+IF(VLOOKUP(B29,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B29,main!$C$2:$P$71,13,FALSE))</f>
         <v/>
       </c>
-      <c r="F29" s="42">
+      <c r="F29" s="34">
         <f>+IF(VLOOKUP(B29,main!C29:P98,14,FALSE)=0,"",VLOOKUP(B29,main!C29:P98,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="41" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="41" t="s">
+      <c r="C30" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="E30" s="42" t="str">
+      <c r="E30" s="34" t="str">
         <f>+IF(VLOOKUP(B30,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B30,main!$C$2:$P$71,13,FALSE))</f>
         <v/>
       </c>
-      <c r="F30" s="42">
+      <c r="F30" s="34">
         <f>+IF(VLOOKUP(B30,main!C30:P99,14,FALSE)=0,"",VLOOKUP(B30,main!C30:P99,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="41" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="E31" s="42" t="str">
+      <c r="E31" s="34" t="str">
         <f>+IF(VLOOKUP(B31,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B31,main!$C$2:$P$71,13,FALSE))</f>
         <v/>
       </c>
-      <c r="F31" s="42">
+      <c r="F31" s="34">
         <f>+IF(VLOOKUP(B31,main!C31:P100,14,FALSE)=0,"",VLOOKUP(B31,main!C31:P100,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="41" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="E32" s="42">
+      <c r="E32" s="34">
         <f>+IF(VLOOKUP(B32,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B32,main!$C$2:$P$71,13,FALSE))</f>
         <v>0.8</v>
       </c>
-      <c r="F32" s="42">
+      <c r="F32" s="34">
         <f>+IF(VLOOKUP(B32,main!C32:P101,14,FALSE)=0,"",VLOOKUP(B32,main!C32:P101,14,FALSE))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="41" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="E33" s="42" t="str">
+      <c r="E33" s="34" t="str">
         <f>+IF(VLOOKUP(B33,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B33,main!$C$2:$P$71,13,FALSE))</f>
         <v/>
       </c>
-      <c r="F33" s="42">
+      <c r="F33" s="34">
         <f>+IF(VLOOKUP(B33,main!C33:P102,14,FALSE)=0,"",VLOOKUP(B33,main!C33:P102,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="41" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="C34" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="41" t="s">
+      <c r="D34" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="E34" s="42" t="str">
+      <c r="E34" s="34" t="str">
         <f>+IF(VLOOKUP(B34,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B34,main!$C$2:$P$71,13,FALSE))</f>
         <v/>
       </c>
-      <c r="F34" s="42">
+      <c r="F34" s="34">
         <f>+IF(VLOOKUP(B34,main!C34:P103,14,FALSE)=0,"",VLOOKUP(B34,main!C34:P103,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="41" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="E35" s="42" t="str">
+      <c r="E35" s="34" t="str">
         <f>+IF(VLOOKUP(B35,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B35,main!$C$2:$P$71,13,FALSE))</f>
         <v/>
       </c>
-      <c r="F35" s="42">
+      <c r="F35" s="34">
         <f>+IF(VLOOKUP(B35,main!C35:P104,14,FALSE)=0,"",VLOOKUP(B35,main!C35:P104,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="41" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="D36" s="41" t="s">
+      <c r="D36" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="E36" s="42" t="str">
+      <c r="E36" s="34" t="str">
         <f>+IF(VLOOKUP(B36,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B36,main!$C$2:$P$71,13,FALSE))</f>
         <v/>
       </c>
-      <c r="F36" s="42">
+      <c r="F36" s="34">
         <f>+IF(VLOOKUP(B36,main!C36:P105,14,FALSE)=0,"",VLOOKUP(B36,main!C36:P105,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="41" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="41" t="s">
+      <c r="D37" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="E37" s="42" t="str">
+      <c r="E37" s="34" t="str">
         <f>+IF(VLOOKUP(B37,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B37,main!$C$2:$P$71,13,FALSE))</f>
         <v/>
       </c>
-      <c r="F37" s="42">
+      <c r="F37" s="34">
         <f>+IF(VLOOKUP(B37,main!C37:P106,14,FALSE)=0,"",VLOOKUP(B37,main!C37:P106,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="41" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="C38" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="41" t="s">
+      <c r="D38" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="E38" s="42" t="str">
+      <c r="E38" s="34" t="str">
         <f>+IF(VLOOKUP(B38,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B38,main!$C$2:$P$71,13,FALSE))</f>
         <v/>
       </c>
-      <c r="F38" s="42">
+      <c r="F38" s="34">
         <f>+IF(VLOOKUP(B38,main!C38:P107,14,FALSE)=0,"",VLOOKUP(B38,main!C38:P107,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="41" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="C39" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D39" s="41" t="s">
+      <c r="D39" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="E39" s="42" t="str">
+      <c r="E39" s="34" t="str">
         <f>+IF(VLOOKUP(B39,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B39,main!$C$2:$P$71,13,FALSE))</f>
         <v/>
       </c>
-      <c r="F39" s="42">
+      <c r="F39" s="34">
         <f>+IF(VLOOKUP(B39,main!C39:P108,14,FALSE)=0,"",VLOOKUP(B39,main!C39:P108,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="41" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="C40" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="D40" s="41" t="s">
+      <c r="D40" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="E40" s="42">
+      <c r="E40" s="34">
         <f>+IF(VLOOKUP(B40,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B40,main!$C$2:$P$71,13,FALSE))</f>
         <v>1</v>
       </c>
-      <c r="F40" s="42">
+      <c r="F40" s="34">
         <f>+IF(VLOOKUP(B40,main!C40:P109,14,FALSE)=0,"",VLOOKUP(B40,main!C40:P109,14,FALSE))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="41" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="41" t="s">
+      <c r="C41" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="D41" s="41" t="s">
+      <c r="D41" s="33" t="s">
         <v>332</v>
       </c>
-      <c r="E41" s="42">
+      <c r="E41" s="34">
         <f>+IF(VLOOKUP(B41,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B41,main!$C$2:$P$71,13,FALSE))</f>
         <v>0.5</v>
       </c>
-      <c r="F41" s="42">
+      <c r="F41" s="34">
         <f>+IF(VLOOKUP(B41,main!C41:P110,14,FALSE)=0,"",VLOOKUP(B41,main!C41:P110,14,FALSE))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="41" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="41" t="s">
+      <c r="C42" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="41" t="s">
+      <c r="D42" s="33" t="s">
         <v>309</v>
       </c>
-      <c r="E42" s="42">
+      <c r="E42" s="34">
         <f>+IF(VLOOKUP(B42,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B42,main!$C$2:$P$71,13,FALSE))</f>
         <v>0.9</v>
       </c>
-      <c r="F42" s="42">
+      <c r="F42" s="34">
         <f>+IF(VLOOKUP(B42,main!C42:P111,14,FALSE)=0,"",VLOOKUP(B42,main!C42:P111,14,FALSE))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="41" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="41" t="s">
+      <c r="C43" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="D43" s="41" t="s">
+      <c r="D43" s="33" t="s">
         <v>310</v>
       </c>
-      <c r="E43" s="42" t="str">
+      <c r="E43" s="34" t="str">
         <f>+IF(VLOOKUP(B43,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B43,main!$C$2:$P$71,13,FALSE))</f>
         <v/>
       </c>
-      <c r="F43" s="42">
+      <c r="F43" s="34">
         <f>+IF(VLOOKUP(B43,main!C43:P112,14,FALSE)=0,"",VLOOKUP(B43,main!C43:P112,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="41" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="D44" s="41" t="s">
+      <c r="D44" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="E44" s="42" t="str">
+      <c r="E44" s="34" t="str">
         <f>+IF(VLOOKUP(B44,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B44,main!$C$2:$P$71,13,FALSE))</f>
         <v/>
       </c>
-      <c r="F44" s="42">
+      <c r="F44" s="34">
         <f>+IF(VLOOKUP(B44,main!C44:P113,14,FALSE)=0,"",VLOOKUP(B44,main!C44:P113,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="41" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="41" t="s">
+      <c r="C45" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="D45" s="41" t="s">
+      <c r="D45" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="E45" s="42">
+      <c r="E45" s="34">
         <f>+IF(VLOOKUP(B45,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B45,main!$C$2:$P$71,13,FALSE))</f>
         <v>0.5</v>
       </c>
-      <c r="F45" s="42">
+      <c r="F45" s="34">
         <f>+IF(VLOOKUP(B45,main!C45:P114,14,FALSE)=0,"",VLOOKUP(B45,main!C45:P114,14,FALSE))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="41" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="C46" s="41" t="s">
+      <c r="C46" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="41" t="s">
+      <c r="D46" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="E46" s="42">
+      <c r="E46" s="34">
         <f>+IF(VLOOKUP(B46,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B46,main!$C$2:$P$71,13,FALSE))</f>
         <v>0.5</v>
       </c>
-      <c r="F46" s="42">
+      <c r="F46" s="34">
         <f>+IF(VLOOKUP(B46,main!C46:P115,14,FALSE)=0,"",VLOOKUP(B46,main!C46:P115,14,FALSE))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="41" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="41" t="s">
+      <c r="C47" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="41" t="s">
+      <c r="D47" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="E47" s="42" t="str">
+      <c r="E47" s="34" t="str">
         <f>+IF(VLOOKUP(B47,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B47,main!$C$2:$P$71,13,FALSE))</f>
         <v/>
       </c>
-      <c r="F47" s="42">
+      <c r="F47" s="34">
         <f>+IF(VLOOKUP(B47,main!C47:P116,14,FALSE)=0,"",VLOOKUP(B47,main!C47:P116,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="41" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="C48" s="41" t="s">
+      <c r="C48" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="D48" s="41" t="s">
+      <c r="D48" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="E48" s="42">
+      <c r="E48" s="34">
         <f>+IF(VLOOKUP(B48,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B48,main!$C$2:$P$71,13,FALSE))</f>
         <v>0.5</v>
       </c>
-      <c r="F48" s="42">
+      <c r="F48" s="34">
         <f>+IF(VLOOKUP(B48,main!C48:P117,14,FALSE)=0,"",VLOOKUP(B48,main!C48:P117,14,FALSE))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="41" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="41" t="s">
+      <c r="C49" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="D49" s="41" t="s">
+      <c r="D49" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="E49" s="42">
+      <c r="E49" s="34">
         <f>+IF(VLOOKUP(B49,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B49,main!$C$2:$P$71,13,FALSE))</f>
         <v>0.5</v>
       </c>
-      <c r="F49" s="42">
+      <c r="F49" s="34">
         <f>+IF(VLOOKUP(B49,main!C49:P118,14,FALSE)=0,"",VLOOKUP(B49,main!C49:P118,14,FALSE))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="41" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B50" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="C50" s="41" t="s">
+      <c r="C50" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="D50" s="41" t="s">
+      <c r="D50" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="E50" s="42">
+      <c r="E50" s="34">
         <f>+IF(VLOOKUP(B50,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B50,main!$C$2:$P$71,13,FALSE))</f>
         <v>0.2</v>
       </c>
-      <c r="F50" s="42">
+      <c r="F50" s="34">
         <f>+IF(VLOOKUP(B50,main!C50:P119,14,FALSE)=0,"",VLOOKUP(B50,main!C50:P119,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="41" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B51" s="41" t="s">
+      <c r="B51" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="C51" s="41" t="s">
+      <c r="C51" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D51" s="41" t="s">
+      <c r="D51" s="33" t="s">
         <v>318</v>
       </c>
-      <c r="E51" s="42" t="str">
+      <c r="E51" s="34" t="str">
         <f>+IF(VLOOKUP(B51,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B51,main!$C$2:$P$71,13,FALSE))</f>
         <v/>
       </c>
-      <c r="F51" s="42">
+      <c r="F51" s="34">
         <f>+IF(VLOOKUP(B51,main!C51:P120,14,FALSE)=0,"",VLOOKUP(B51,main!C51:P120,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="41" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B52" s="41" t="s">
+      <c r="B52" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="C52" s="41" t="s">
+      <c r="C52" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="D52" s="41" t="s">
+      <c r="D52" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="E52" s="42">
+      <c r="E52" s="34">
         <f>+IF(VLOOKUP(B52,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B52,main!$C$2:$P$71,13,FALSE))</f>
         <v>0.5</v>
       </c>
-      <c r="F52" s="42">
+      <c r="F52" s="34">
         <f>+IF(VLOOKUP(B52,main!C52:P121,14,FALSE)=0,"",VLOOKUP(B52,main!C52:P121,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="41" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B53" s="41" t="s">
+      <c r="B53" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="41" t="s">
+      <c r="C53" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="D53" s="41" t="s">
+      <c r="D53" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="E53" s="42">
+      <c r="E53" s="34">
         <f>+IF(VLOOKUP(B53,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B53,main!$C$2:$P$71,13,FALSE))</f>
         <v>0.5</v>
       </c>
-      <c r="F53" s="42">
+      <c r="F53" s="34">
         <f>+IF(VLOOKUP(B53,main!C53:P122,14,FALSE)=0,"",VLOOKUP(B53,main!C53:P122,14,FALSE))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="41" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="41" t="s">
+      <c r="C54" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="41" t="s">
+      <c r="D54" s="33" t="s">
         <v>321</v>
       </c>
-      <c r="E54" s="42">
+      <c r="E54" s="34">
         <f>+IF(VLOOKUP(B54,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B54,main!$C$2:$P$71,13,FALSE))</f>
         <v>0.5</v>
       </c>
-      <c r="F54" s="42">
+      <c r="F54" s="34">
         <f>+IF(VLOOKUP(B54,main!C54:P123,14,FALSE)=0,"",VLOOKUP(B54,main!C54:P123,14,FALSE))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="41" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B55" s="41" t="s">
+      <c r="B55" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C55" s="41" t="s">
+      <c r="C55" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D55" s="41" t="s">
+      <c r="D55" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="E55" s="42">
+      <c r="E55" s="34">
         <f>+IF(VLOOKUP(B55,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B55,main!$C$2:$P$71,13,FALSE))</f>
         <v>0.5</v>
       </c>
-      <c r="F55" s="42">
+      <c r="F55" s="34">
         <f>+IF(VLOOKUP(B55,main!C55:P124,14,FALSE)=0,"",VLOOKUP(B55,main!C55:P124,14,FALSE))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="41" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="B56" s="41" t="s">
+      <c r="B56" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="41" t="s">
+      <c r="C56" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="41" t="s">
+      <c r="D56" s="33" t="s">
         <v>323</v>
       </c>
-      <c r="E56" s="42">
+      <c r="E56" s="34">
         <f>+IF(VLOOKUP(B56,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B56,main!$C$2:$P$71,13,FALSE))</f>
         <v>1</v>
       </c>
-      <c r="F56" s="42">
+      <c r="F56" s="34">
         <f>+IF(VLOOKUP(B56,main!C56:P125,14,FALSE)=0,"",VLOOKUP(B56,main!C56:P125,14,FALSE))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="41" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="B57" s="41" t="s">
+      <c r="B57" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="41" t="s">
+      <c r="C57" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="41" t="s">
+      <c r="D57" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="E57" s="42" t="str">
+      <c r="E57" s="34" t="str">
         <f>+IF(VLOOKUP(B57,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B57,main!$C$2:$P$71,13,FALSE))</f>
         <v/>
       </c>
-      <c r="F57" s="42">
+      <c r="F57" s="34">
         <f>+IF(VLOOKUP(B57,main!C57:P126,14,FALSE)=0,"",VLOOKUP(B57,main!C57:P126,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="41" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="B58" s="41" t="s">
+      <c r="B58" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="41" t="s">
+      <c r="C58" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D58" s="41" t="s">
+      <c r="D58" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="E58" s="42">
+      <c r="E58" s="34">
         <f>+IF(VLOOKUP(B58,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B58,main!$C$2:$P$71,13,FALSE))</f>
         <v>0.5</v>
       </c>
-      <c r="F58" s="42">
+      <c r="F58" s="34">
         <f>+IF(VLOOKUP(B58,main!C58:P127,14,FALSE)=0,"",VLOOKUP(B58,main!C58:P127,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="41" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="B59" s="41" t="s">
+      <c r="B59" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="41" t="s">
+      <c r="C59" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="D59" s="41" t="s">
+      <c r="D59" s="33" t="s">
         <v>326</v>
       </c>
-      <c r="E59" s="42">
+      <c r="E59" s="34">
         <f>+IF(VLOOKUP(B59,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B59,main!$C$2:$P$71,13,FALSE))</f>
         <v>1</v>
       </c>
-      <c r="F59" s="42">
+      <c r="F59" s="34">
         <f>+IF(VLOOKUP(B59,main!C59:P128,14,FALSE)=0,"",VLOOKUP(B59,main!C59:P128,14,FALSE))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="41" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B60" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C60" s="41" t="s">
+      <c r="C60" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="D60" s="41" t="s">
+      <c r="D60" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="E60" s="42">
+      <c r="E60" s="34">
         <f>+IF(VLOOKUP(B60,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B60,main!$C$2:$P$71,13,FALSE))</f>
         <v>1</v>
       </c>
-      <c r="F60" s="42">
+      <c r="F60" s="34">
         <f>+IF(VLOOKUP(B60,main!C60:P129,14,FALSE)=0,"",VLOOKUP(B60,main!C60:P129,14,FALSE))</f>
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="41" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="B61" s="41" t="s">
+      <c r="B61" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C61" s="41" t="s">
+      <c r="C61" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D61" s="41" t="s">
+      <c r="D61" s="33" t="s">
         <v>328</v>
       </c>
-      <c r="E61" s="42">
+      <c r="E61" s="34">
         <f>+IF(VLOOKUP(B61,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B61,main!$C$2:$P$71,13,FALSE))</f>
         <v>0.5</v>
       </c>
-      <c r="F61" s="42">
+      <c r="F61" s="34">
         <f>+IF(VLOOKUP(B61,main!C61:P130,14,FALSE)=0,"",VLOOKUP(B61,main!C61:P130,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="41" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="B62" s="41" t="s">
+      <c r="B62" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="41" t="s">
+      <c r="C62" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="D62" s="41" t="s">
+      <c r="D62" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="E62" s="42">
+      <c r="E62" s="34">
         <f>+IF(VLOOKUP(B62,main!$C$2:$P$71,13,FALSE)=0,"",VLOOKUP(B62,main!$C$2:$P$71,13,FALSE))</f>
         <v>0.5</v>
       </c>
-      <c r="F62" s="42">
+      <c r="F62" s="34">
         <f>+IF(VLOOKUP(B62,main!C62:P131,14,FALSE)=0,"",VLOOKUP(B62,main!C62:P131,14,FALSE))</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F62" xr:uid="{1CB6D802-2A41-42EC-BC6C-43AD8F9BB1E2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
